--- a/src/SimJobShop/RealData.xlsx
+++ b/src/SimJobShop/RealData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hols\Projekte\KTI_Complexity-4.0\Daten\Schindler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hols\Projekte\KTI_Complexity-4.0\Code\SimJobShop1\src\SimJobShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25875" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>ProductId</t>
+  </si>
   <si>
     <t>Geschwindigkeit</t>
   </si>
@@ -55,31 +58,12 @@
   <si>
     <t>Cost per unit</t>
   </si>
-  <si>
-    <t>ProductId</t>
-  </si>
-  <si>
-    <t>Anz Prozesschritte</t>
-  </si>
-  <si>
-    <t>Prozesszeiten</t>
-  </si>
-  <si>
-    <t>Montatsprogramm</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +89,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,72 +374,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O463"/>
+  <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" customWidth="1"/>
-    <col min="13" max="13" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.265625" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <f>AVERAGE(K2:K463)</f>
-        <v>79000.194298764618</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,16 +461,8 @@
       <c r="K2">
         <v>20627.5</v>
       </c>
-      <c r="L2" s="1">
-        <f>K2/$L$1</f>
-        <v>0.26110695274989426</v>
-      </c>
-      <c r="M2">
-        <f ca="1">IF(RAND()&lt;G2/12,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,16 +496,8 @@
       <c r="K3">
         <v>34824.370000000003</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L66" si="0">K3/$L$1</f>
-        <v>0.44081372595490664</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" ca="1" si="1">IF(RAND()&lt;G3/12,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,16 +531,8 @@
       <c r="K4">
         <v>30995.769999999997</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39235055400977287</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -621,16 +566,8 @@
       <c r="K5">
         <v>62843.58</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7954863979490584</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -664,16 +601,8 @@
       <c r="K6">
         <v>8135.0299999999988</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.102974810026856</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -707,16 +636,8 @@
       <c r="K7">
         <v>57232.599999999991</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72446150934207232</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -750,16 +671,8 @@
       <c r="K8">
         <v>17584.39</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22258666774285363</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -793,16 +706,8 @@
       <c r="K9">
         <v>68637.11</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.86882204036646693</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -836,16 +741,8 @@
       <c r="K10">
         <v>27892.183333333302</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35306474345936478</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -879,16 +776,8 @@
       <c r="K11">
         <v>150356.75</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9032453190099463</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -922,16 +811,8 @@
       <c r="K12">
         <v>31520.834999999999</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39899693006822023</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -965,16 +846,8 @@
       <c r="K13">
         <v>12451.73477272725</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15761650820296738</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1008,16 +881,8 @@
       <c r="K14">
         <v>16542.430106382981</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20939733443974157</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1051,16 +916,8 @@
       <c r="K15">
         <v>15715.131914893651</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19892523118945543</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1094,16 +951,8 @@
       <c r="K16">
         <v>14290.870999999999</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.18089665635447019</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1137,16 +986,8 @@
       <c r="K17">
         <v>11717.801428571409</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14832623555654531</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1180,16 +1021,8 @@
       <c r="K18">
         <v>13071.26257261407</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16545861296468323</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1223,16 +1056,8 @@
       <c r="K19">
         <v>13198.02649681531</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16706321565365689</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1266,16 +1091,8 @@
       <c r="K20">
         <v>13694.46736111107</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17334726177154758</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1309,16 +1126,8 @@
       <c r="K21">
         <v>16907.3569444444</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21401665014270468</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1352,16 +1161,8 @@
       <c r="K22">
         <v>18809.791889763757</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23809804591908326</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1395,16 +1196,8 @@
       <c r="K23">
         <v>20267.943706896582</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25655561846147923</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1438,16 +1231,8 @@
       <c r="K24">
         <v>33896.098571428534</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42906348360662944</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1481,16 +1266,8 @@
       <c r="K25">
         <v>58890.82</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74545158429972258</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1524,16 +1301,8 @@
       <c r="K26">
         <v>47121.034999999996</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59646733047005762</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1567,16 +1336,8 @@
       <c r="K27">
         <v>23433.654999999999</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29662781475420302</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1610,16 +1371,8 @@
       <c r="K28">
         <v>35959.81</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45518634883360443</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1653,16 +1406,8 @@
       <c r="K29">
         <v>34751.919999999998</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.43989663960286535</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1696,16 +1441,8 @@
       <c r="K30">
         <v>35645.960000000036</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45121357379443122</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1739,16 +1476,8 @@
       <c r="K31">
         <v>67133.842499999999</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84979338463538212</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1782,16 +1511,8 @@
       <c r="K32">
         <v>46955.24</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5943686647456039</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1825,16 +1546,8 @@
       <c r="K33">
         <v>54219.364000000001</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68631937530371201</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1868,16 +1581,8 @@
       <c r="K34">
         <v>60461.32</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76533128224148528</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1911,16 +1616,8 @@
       <c r="K35">
         <v>72506.39</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91780014775398888</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1954,16 +1651,8 @@
       <c r="K36">
         <v>83500.065000000002</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0569602485307528</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1997,16 +1686,8 @@
       <c r="K37">
         <v>58870.79</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74519804061951034</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2040,16 +1721,8 @@
       <c r="K38">
         <v>86412.55</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0938270565918253</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2083,16 +1756,8 @@
       <c r="K39">
         <v>100744.47</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2752433192632719</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2126,16 +1791,8 @@
       <c r="K40">
         <v>16598.45</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21010644527312969</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2169,16 +1826,8 @@
       <c r="K41">
         <v>164441.53</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="0"/>
-        <v>2.081533234945113</v>
-      </c>
-      <c r="M41">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2212,16 +1861,8 @@
       <c r="K42">
         <v>74120.320000000007</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93822959117910776</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2255,16 +1896,8 @@
       <c r="K43">
         <v>89504.14</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1329610109756356</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2298,16 +1931,8 @@
       <c r="K44">
         <v>85823.583076923096</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0863717974205689</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2341,16 +1966,8 @@
       <c r="K45">
         <v>100985.0414285716</v>
       </c>
-      <c r="L45" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2782885197302707</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2384,16 +2001,8 @@
       <c r="K46">
         <v>118731.47750000001</v>
       </c>
-      <c r="L46" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5029263985222463</v>
-      </c>
-      <c r="M46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2427,16 +2036,8 @@
       <c r="K47">
         <v>162189.63500000001</v>
       </c>
-      <c r="L47" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0530283050523623</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2470,16 +2071,8 @@
       <c r="K48">
         <v>195213.31</v>
       </c>
-      <c r="L48" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4710484794725711</v>
-      </c>
-      <c r="M48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2513,16 +2106,8 @@
       <c r="K49">
         <v>7338.75</v>
       </c>
-      <c r="L49" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2895341146202237E-2</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2556,16 +2141,8 @@
       <c r="K50">
         <v>27923.887500000001</v>
       </c>
-      <c r="L50" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35346606103773426</v>
-      </c>
-      <c r="M50">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2599,16 +2176,8 @@
       <c r="K51">
         <v>35644.699999999997</v>
       </c>
-      <c r="L51" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45119762446656919</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2642,16 +2211,8 @@
       <c r="K52">
         <v>130211.57</v>
       </c>
-      <c r="L52" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6482436676998935</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2685,16 +2246,8 @@
       <c r="K53">
         <v>26498.53</v>
       </c>
-      <c r="L53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33542360541275751</v>
-      </c>
-      <c r="M53">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2728,16 +2281,8 @@
       <c r="K54">
         <v>50079.023333333331</v>
       </c>
-      <c r="L54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63391012867567653</v>
-      </c>
-      <c r="M54">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2771,16 +2316,8 @@
       <c r="K55">
         <v>31671.978571428499</v>
       </c>
-      <c r="L55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40091013512765217</v>
-      </c>
-      <c r="M55">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2814,16 +2351,8 @@
       <c r="K56">
         <v>30451.809999999998</v>
       </c>
-      <c r="L56" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38546500132438527</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2857,16 +2386,8 @@
       <c r="K57">
         <v>27119.543333333371</v>
       </c>
-      <c r="L57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34328451434906737</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2900,16 +2421,8 @@
       <c r="K58">
         <v>40640.434827586221</v>
       </c>
-      <c r="L58" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51443461865285245</v>
-      </c>
-      <c r="M58">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2943,16 +2456,8 @@
       <c r="K59">
         <v>44766.71</v>
       </c>
-      <c r="L59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56666582148773337</v>
-      </c>
-      <c r="M59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2986,16 +2491,8 @@
       <c r="K60">
         <v>42594.65</v>
       </c>
-      <c r="L60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53917145872976779</v>
-      </c>
-      <c r="M60">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3029,16 +2526,8 @@
       <c r="K61">
         <v>31093.631666666628</v>
       </c>
-      <c r="L61" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39358930623735011</v>
-      </c>
-      <c r="M61">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3072,16 +2561,8 @@
       <c r="K62">
         <v>34845.17</v>
       </c>
-      <c r="L62" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44107701644658986</v>
-      </c>
-      <c r="M62">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3115,16 +2596,8 @@
       <c r="K63">
         <v>51880.392500000002</v>
       </c>
-      <c r="L63" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65671221394465973</v>
-      </c>
-      <c r="M63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3158,16 +2631,8 @@
       <c r="K64">
         <v>22627.66</v>
       </c>
-      <c r="L64" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28642537149245778</v>
-      </c>
-      <c r="M64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3201,16 +2666,8 @@
       <c r="K65">
         <v>20381.688571428531</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25799542333210762</v>
-      </c>
-      <c r="M65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3244,16 +2701,8 @@
       <c r="K66">
         <v>23739.250588235311</v>
       </c>
-      <c r="L66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30049610382548814</v>
-      </c>
-      <c r="M66">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3287,16 +2736,8 @@
       <c r="K67">
         <v>26243.954656862777</v>
       </c>
-      <c r="L67" s="1">
-        <f t="shared" ref="L67:L130" si="2">K67/$L$1</f>
-        <v>0.3322011406403993</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M130" ca="1" si="3">IF(RAND()&lt;G67/12,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3330,16 +2771,8 @@
       <c r="K68">
         <v>36382.438695652199</v>
       </c>
-      <c r="L68" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46053606600080399</v>
-      </c>
-      <c r="M68">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3373,16 +2806,8 @@
       <c r="K69">
         <v>27441.800000000003</v>
       </c>
-      <c r="L69" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3473637026286292</v>
-      </c>
-      <c r="M69">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3416,16 +2841,8 @@
       <c r="K70">
         <v>21186.113333333367</v>
       </c>
-      <c r="L70" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26817799021115407</v>
-      </c>
-      <c r="M70">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3459,16 +2876,8 @@
       <c r="K71">
         <v>36376.0016666667</v>
       </c>
-      <c r="L71" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46045458482164187</v>
-      </c>
-      <c r="M71">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3502,16 +2911,8 @@
       <c r="K72">
         <v>14753.212</v>
       </c>
-      <c r="L72" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18674905968213176</v>
-      </c>
-      <c r="M72">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3545,16 +2946,8 @@
       <c r="K73">
         <v>16886.989516129011</v>
       </c>
-      <c r="L73" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21375883522849873</v>
-      </c>
-      <c r="M73">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3588,16 +2981,8 @@
       <c r="K74">
         <v>20424.296206896532</v>
       </c>
-      <c r="L74" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25853475916344576</v>
-      </c>
-      <c r="M74">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3631,16 +3016,8 @@
       <c r="K75">
         <v>14385.823124999999</v>
       </c>
-      <c r="L75" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18209857903127918</v>
-      </c>
-      <c r="M75">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3674,16 +3051,8 @@
       <c r="K76">
         <v>15771.983749999999</v>
       </c>
-      <c r="L76" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1996448729018713</v>
-      </c>
-      <c r="M76">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3717,16 +3086,8 @@
       <c r="K77">
         <v>16352.316842105291</v>
       </c>
-      <c r="L77" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20699084334228027</v>
-      </c>
-      <c r="M77">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3760,16 +3121,8 @@
       <c r="K78">
         <v>18907.863999999998</v>
       </c>
-      <c r="L78" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23933946198276215</v>
-      </c>
-      <c r="M78">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3803,16 +3156,8 @@
       <c r="K79">
         <v>29998.193538461554</v>
       </c>
-      <c r="L79" s="1">
-        <f t="shared" si="2"/>
-        <v>0.37972303492082243</v>
-      </c>
-      <c r="M79">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3846,16 +3191,8 @@
       <c r="K80">
         <v>25914.834074074108</v>
       </c>
-      <c r="L80" s="1">
-        <f t="shared" si="2"/>
-        <v>0.32803506756032569</v>
-      </c>
-      <c r="M80">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3889,16 +3226,8 @@
       <c r="K81">
         <v>23073.247058823537</v>
       </c>
-      <c r="L81" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29206570013694699</v>
-      </c>
-      <c r="M81">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3932,16 +3261,8 @@
       <c r="K82">
         <v>24934.62</v>
       </c>
-      <c r="L82" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3156273249873503</v>
-      </c>
-      <c r="M82">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3975,16 +3296,8 @@
       <c r="K83">
         <v>11184.339999999966</v>
       </c>
-      <c r="L83" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14157357585353259</v>
-      </c>
-      <c r="M83">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4018,16 +3331,8 @@
       <c r="K84">
         <v>18265.538846153839</v>
       </c>
-      <c r="L84" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2312087838300351</v>
-      </c>
-      <c r="M84">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4061,16 +3366,8 @@
       <c r="K85">
         <v>15247.170526315782</v>
       </c>
-      <c r="L85" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1930016838775574</v>
-      </c>
-      <c r="M85">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4104,16 +3401,8 @@
       <c r="K86">
         <v>15561.377727272749</v>
       </c>
-      <c r="L86" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19697898043671133</v>
-      </c>
-      <c r="M86">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4147,16 +3436,8 @@
       <c r="K87">
         <v>16205.26</v>
       </c>
-      <c r="L87" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20512936890654473</v>
-      </c>
-      <c r="M87">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4190,16 +3471,8 @@
       <c r="K88">
         <v>18632.82222222221</v>
       </c>
-      <c r="L88" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23585792905465786</v>
-      </c>
-      <c r="M88">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4233,16 +3506,8 @@
       <c r="K89">
         <v>20213.3</v>
       </c>
-      <c r="L89" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25586392767031574</v>
-      </c>
-      <c r="M89">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4276,16 +3541,8 @@
       <c r="K90">
         <v>28997.93</v>
       </c>
-      <c r="L90" s="1">
-        <f t="shared" si="2"/>
-        <v>0.36706150228358947</v>
-      </c>
-      <c r="M90">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4319,16 +3576,8 @@
       <c r="K91">
         <v>20649.101860465162</v>
       </c>
-      <c r="L91" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26138039334908403</v>
-      </c>
-      <c r="M91">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4362,16 +3611,8 @@
       <c r="K92">
         <v>23850.63278056954</v>
       </c>
-      <c r="L92" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30190600152666347</v>
-      </c>
-      <c r="M92">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4405,16 +3646,8 @@
       <c r="K93">
         <v>23530.234121093697</v>
       </c>
-      <c r="L93" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29785033226762148</v>
-      </c>
-      <c r="M93">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4448,16 +3681,8 @@
       <c r="K94">
         <v>22659.328516746391</v>
       </c>
-      <c r="L94" s="1">
-        <f t="shared" si="2"/>
-        <v>0.28682623780712307</v>
-      </c>
-      <c r="M94">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4491,16 +3716,8 @@
       <c r="K95">
         <v>24837.6201666667</v>
       </c>
-      <c r="L95" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31439948201564238</v>
-      </c>
-      <c r="M95">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4534,16 +3751,8 @@
       <c r="K96">
         <v>29318.480784313742</v>
       </c>
-      <c r="L96" s="1">
-        <f t="shared" si="2"/>
-        <v>0.37111909716875491</v>
-      </c>
-      <c r="M96">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4577,16 +3786,8 @@
       <c r="K97">
         <v>26313.201463414669</v>
       </c>
-      <c r="L97" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3330776803396564</v>
-      </c>
-      <c r="M97">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4620,16 +3821,8 @@
       <c r="K98">
         <v>22023.203333333298</v>
       </c>
-      <c r="L98" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27877404009976836</v>
-      </c>
-      <c r="M98">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4663,16 +3856,8 @@
       <c r="K99">
         <v>44887.729999999996</v>
       </c>
-      <c r="L99" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56819771645424844</v>
-      </c>
-      <c r="M99">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4706,16 +3891,8 @@
       <c r="K100">
         <v>18551.292087378599</v>
       </c>
-      <c r="L100" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23482590456956254</v>
-      </c>
-      <c r="M100">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4749,16 +3926,8 @@
       <c r="K101">
         <v>22963.627080028851</v>
       </c>
-      <c r="L101" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29067810888141005</v>
-      </c>
-      <c r="M101">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4792,16 +3961,8 @@
       <c r="K102">
         <v>25121.70305031442</v>
       </c>
-      <c r="L102" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31799545904037435</v>
-      </c>
-      <c r="M102">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4835,16 +3996,8 @@
       <c r="K103">
         <v>25255.39608076014</v>
       </c>
-      <c r="L103" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31968777171925356</v>
-      </c>
-      <c r="M103">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4878,16 +4031,8 @@
       <c r="K104">
         <v>26715.476069364169</v>
       </c>
-      <c r="L104" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33816975143543332</v>
-      </c>
-      <c r="M104">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4921,16 +4066,8 @@
       <c r="K105">
         <v>26461.197777777772</v>
       </c>
-      <c r="L105" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33495104680004012</v>
-      </c>
-      <c r="M105">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4964,16 +4101,8 @@
       <c r="K106">
         <v>25460.24347826088</v>
       </c>
-      <c r="L106" s="1">
-        <f t="shared" si="2"/>
-        <v>0.32228077037348529</v>
-      </c>
-      <c r="M106">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5007,16 +4136,8 @@
       <c r="K107">
         <v>23960.99666666663</v>
       </c>
-      <c r="L107" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30330300930717236</v>
-      </c>
-      <c r="M107">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5050,16 +4171,8 @@
       <c r="K108">
         <v>39522.246666666681</v>
       </c>
-      <c r="L108" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50028037294693994</v>
-      </c>
-      <c r="M108">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5093,16 +4206,8 @@
       <c r="K109">
         <v>48594.259571428564</v>
       </c>
-      <c r="L109" s="1">
-        <f t="shared" si="2"/>
-        <v>0.61511569690137413</v>
-      </c>
-      <c r="M109">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5136,16 +4241,8 @@
       <c r="K110">
         <v>27685.829287671258</v>
       </c>
-      <c r="L110" s="1">
-        <f t="shared" si="2"/>
-        <v>0.35045267335632618</v>
-      </c>
-      <c r="M110">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5179,16 +4276,8 @@
       <c r="K111">
         <v>25968.974753086401</v>
       </c>
-      <c r="L111" s="1">
-        <f t="shared" si="2"/>
-        <v>0.32872039092557642</v>
-      </c>
-      <c r="M111">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5222,16 +4311,8 @@
       <c r="K112">
         <v>27243.826931818188</v>
       </c>
-      <c r="L112" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34485772058720393</v>
-      </c>
-      <c r="M112">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5265,16 +4346,8 @@
       <c r="K113">
         <v>23943.056511627939</v>
       </c>
-      <c r="L113" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30307591929558525</v>
-      </c>
-      <c r="M113">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5308,16 +4381,8 @@
       <c r="K114">
         <v>19051.089090909132</v>
       </c>
-      <c r="L114" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24115243335809172</v>
-      </c>
-      <c r="M114">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5351,16 +4416,8 @@
       <c r="K115">
         <v>38318.512499999997</v>
       </c>
-      <c r="L115" s="1">
-        <f t="shared" si="2"/>
-        <v>0.48504326907205103</v>
-      </c>
-      <c r="M115">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5394,16 +4451,8 @@
       <c r="K116">
         <v>59993.49</v>
       </c>
-      <c r="L116" s="1">
-        <f t="shared" si="2"/>
-        <v>0.7594093980720521</v>
-      </c>
-      <c r="M116">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5437,16 +4486,8 @@
       <c r="K117">
         <v>24402.96354523232</v>
       </c>
-      <c r="L117" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30889751299781204</v>
-      </c>
-      <c r="M117">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5480,16 +4521,8 @@
       <c r="K118">
         <v>25680.955398475402</v>
       </c>
-      <c r="L118" s="1">
-        <f t="shared" si="2"/>
-        <v>0.32507458527702626</v>
-      </c>
-      <c r="M118">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5523,16 +4556,8 @@
       <c r="K119">
         <v>26927.296142152838</v>
       </c>
-      <c r="L119" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34085101158509329</v>
-      </c>
-      <c r="M119">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5566,16 +4591,8 @@
       <c r="K120">
         <v>31460.363572778813</v>
       </c>
-      <c r="L120" s="1">
-        <f t="shared" si="2"/>
-        <v>0.39823147084678473</v>
-      </c>
-      <c r="M120">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5609,16 +4626,8 @@
       <c r="K121">
         <v>31948.08899159664</v>
       </c>
-      <c r="L121" s="1">
-        <f t="shared" si="2"/>
-        <v>0.40440519514135215</v>
-      </c>
-      <c r="M121">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5652,16 +4661,8 @@
       <c r="K122">
         <v>34243.774428571429</v>
       </c>
-      <c r="L122" s="1">
-        <f t="shared" si="2"/>
-        <v>0.43346443299958975</v>
-      </c>
-      <c r="M122">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5695,16 +4696,8 @@
       <c r="K123">
         <v>33153.299999999959</v>
       </c>
-      <c r="L123" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41966099316946109</v>
-      </c>
-      <c r="M123">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5738,16 +4731,8 @@
       <c r="K124">
         <v>27247.603333333333</v>
       </c>
-      <c r="L124" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34490552302045951</v>
-      </c>
-      <c r="M124">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5781,16 +4766,8 @@
       <c r="K125">
         <v>33581.315000000002</v>
       </c>
-      <c r="L125" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42507889123666542</v>
-      </c>
-      <c r="M125">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5824,16 +4801,8 @@
       <c r="K126">
         <v>38858.090909090897</v>
       </c>
-      <c r="L126" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49187335871778415</v>
-      </c>
-      <c r="M126">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5867,16 +4836,8 @@
       <c r="K127">
         <v>39065.025000000031</v>
       </c>
-      <c r="L127" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49449277114766438</v>
-      </c>
-      <c r="M127">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5910,16 +4871,8 @@
       <c r="K128">
         <v>20719.330000000002</v>
       </c>
-      <c r="L128" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26226935495428277</v>
-      </c>
-      <c r="M128">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5953,16 +4906,8 @@
       <c r="K129">
         <v>78768.91</v>
       </c>
-      <c r="L129" s="1">
-        <f t="shared" si="2"/>
-        <v>0.99707235784902071</v>
-      </c>
-      <c r="M129">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5996,16 +4941,8 @@
       <c r="K130">
         <v>29212.825000000001</v>
       </c>
-      <c r="L130" s="1">
-        <f t="shared" si="2"/>
-        <v>0.36978168546677642</v>
-      </c>
-      <c r="M130">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6039,16 +4976,8 @@
       <c r="K131">
         <v>69899.907368421103</v>
       </c>
-      <c r="L131" s="1">
-        <f t="shared" ref="L131:L194" si="4">K131/$L$1</f>
-        <v>0.88480677786781314</v>
-      </c>
-      <c r="M131">
-        <f t="shared" ref="M131:M194" ca="1" si="5">IF(RAND()&lt;G131/12,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6082,16 +5011,8 @@
       <c r="K132">
         <v>60412.181294117596</v>
       </c>
-      <c r="L132" s="1">
-        <f t="shared" si="4"/>
-        <v>0.76470927483607853</v>
-      </c>
-      <c r="M132">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6125,16 +5046,8 @@
       <c r="K133">
         <v>48830.458048780456</v>
       </c>
-      <c r="L133" s="1">
-        <f t="shared" si="4"/>
-        <v>0.61810554369160653</v>
-      </c>
-      <c r="M133">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6168,16 +5081,8 @@
       <c r="K134">
         <v>29944.241052631533</v>
       </c>
-      <c r="L134" s="1">
-        <f t="shared" si="4"/>
-        <v>0.3790400937418934</v>
-      </c>
-      <c r="M134">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6211,16 +5116,8 @@
       <c r="K135">
         <v>36259.020666666671</v>
       </c>
-      <c r="L135" s="1">
-        <f t="shared" si="4"/>
-        <v>0.4589738163116604</v>
-      </c>
-      <c r="M135">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6254,16 +5151,8 @@
       <c r="K136">
         <v>30394.905999999999</v>
       </c>
-      <c r="L136" s="1">
-        <f t="shared" si="4"/>
-        <v>0.38474469929848393</v>
-      </c>
-      <c r="M136">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6297,16 +5186,8 @@
       <c r="K137">
         <v>204441.07</v>
       </c>
-      <c r="L137" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5878552807964041</v>
-      </c>
-      <c r="M137">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6340,16 +5221,8 @@
       <c r="K138">
         <v>32455.803333333297</v>
       </c>
-      <c r="L138" s="1">
-        <f t="shared" si="4"/>
-        <v>0.41083194315435795</v>
-      </c>
-      <c r="M138">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6383,16 +5256,8 @@
       <c r="K139">
         <v>79156.884999999995</v>
       </c>
-      <c r="L139" s="1">
-        <f t="shared" si="4"/>
-        <v>1.0019834217197341</v>
-      </c>
-      <c r="M139">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6426,16 +5291,8 @@
       <c r="K140">
         <v>112496.16</v>
       </c>
-      <c r="L140" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4239985230233692</v>
-      </c>
-      <c r="M140">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6469,16 +5326,8 @@
       <c r="K141">
         <v>145208.13</v>
       </c>
-      <c r="L141" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8380730742363596</v>
-      </c>
-      <c r="M141">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6512,16 +5361,8 @@
       <c r="K142">
         <v>92626.59</v>
       </c>
-      <c r="L142" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1724855973100874</v>
-      </c>
-      <c r="M142">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6555,16 +5396,8 @@
       <c r="K143">
         <v>67903.06</v>
       </c>
-      <c r="L143" s="1">
-        <f t="shared" si="4"/>
-        <v>0.8595302910674214</v>
-      </c>
-      <c r="M143">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6598,16 +5431,8 @@
       <c r="K144">
         <v>65157.69</v>
       </c>
-      <c r="L144" s="1">
-        <f t="shared" si="4"/>
-        <v>0.82477885755046709</v>
-      </c>
-      <c r="M144">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6641,16 +5466,8 @@
       <c r="K145">
         <v>55120.54</v>
       </c>
-      <c r="L145" s="1">
-        <f t="shared" si="4"/>
-        <v>0.69772663838703952</v>
-      </c>
-      <c r="M145">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6684,16 +5501,8 @@
       <c r="K146">
         <v>29039.573</v>
       </c>
-      <c r="L146" s="1">
-        <f t="shared" si="4"/>
-        <v>0.36758862756941491</v>
-      </c>
-      <c r="M146">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6727,16 +5536,8 @@
       <c r="K147">
         <v>33571.588028169055</v>
       </c>
-      <c r="L147" s="1">
-        <f t="shared" si="4"/>
-        <v>0.42495576531378276</v>
-      </c>
-      <c r="M147">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6770,16 +5571,8 @@
       <c r="K148">
         <v>40481.18692307693</v>
       </c>
-      <c r="L148" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5124188273510355</v>
-      </c>
-      <c r="M148">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6813,16 +5606,8 @@
       <c r="K149">
         <v>37120.987714285759</v>
       </c>
-      <c r="L149" s="1">
-        <f t="shared" si="4"/>
-        <v>0.46988476476273988</v>
-      </c>
-      <c r="M149">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6856,16 +5641,8 @@
       <c r="K150">
         <v>27630.320000000003</v>
       </c>
-      <c r="L150" s="1">
-        <f t="shared" si="4"/>
-        <v>0.34975002587344367</v>
-      </c>
-      <c r="M150">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6899,16 +5676,8 @@
       <c r="K151">
         <v>31438.799999999999</v>
       </c>
-      <c r="L151" s="1">
-        <f t="shared" si="4"/>
-        <v>0.39795851490066059</v>
-      </c>
-      <c r="M151">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6942,16 +5711,8 @@
       <c r="K152">
         <v>111026.33</v>
       </c>
-      <c r="L152" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4053931257449603</v>
-      </c>
-      <c r="M152">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6985,16 +5746,8 @@
       <c r="K153">
         <v>79110.720000000001</v>
       </c>
-      <c r="L153" s="1">
-        <f t="shared" si="4"/>
-        <v>1.001399056068361</v>
-      </c>
-      <c r="M153">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7028,16 +5781,8 @@
       <c r="K154">
         <v>71562.440886075943</v>
       </c>
-      <c r="L154" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9058514541804743</v>
-      </c>
-      <c r="M154">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7071,16 +5816,8 @@
       <c r="K155">
         <v>53620.743461538434</v>
       </c>
-      <c r="L155" s="1">
-        <f t="shared" si="4"/>
-        <v>0.67874191876990031</v>
-      </c>
-      <c r="M155">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7114,16 +5851,8 @@
       <c r="K156">
         <v>43247.590833333321</v>
       </c>
-      <c r="L156" s="1">
-        <f t="shared" si="4"/>
-        <v>0.54743651224171253</v>
-      </c>
-      <c r="M156">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7157,16 +5886,8 @@
       <c r="K157">
         <v>59922.435581395301</v>
       </c>
-      <c r="L157" s="1">
-        <f t="shared" si="4"/>
-        <v>0.75850997726384517</v>
-      </c>
-      <c r="M157">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7200,16 +5921,8 @@
       <c r="K158">
         <v>55062.163999999975</v>
       </c>
-      <c r="L158" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6969877034955726</v>
-      </c>
-      <c r="M158">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7243,16 +5956,8 @@
       <c r="K159">
         <v>72398.541428571436</v>
       </c>
-      <c r="L159" s="1">
-        <f t="shared" si="4"/>
-        <v>0.91643497932135576</v>
-      </c>
-      <c r="M159">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7286,16 +5991,8 @@
       <c r="K160">
         <v>54235.305</v>
       </c>
-      <c r="L160" s="1">
-        <f t="shared" si="4"/>
-        <v>0.68652115961755444</v>
-      </c>
-      <c r="M160">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7329,16 +6026,8 @@
       <c r="K161">
         <v>116264.73000000001</v>
       </c>
-      <c r="L161" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4717018234196688</v>
-      </c>
-      <c r="M161">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7372,16 +6061,8 @@
       <c r="K162">
         <v>61909.80695652173</v>
       </c>
-      <c r="L162" s="1">
-        <f t="shared" si="4"/>
-        <v>0.78366651507703766</v>
-      </c>
-      <c r="M162">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7415,16 +6096,8 @@
       <c r="K163">
         <v>59140.954400000002</v>
       </c>
-      <c r="L163" s="1">
-        <f t="shared" si="4"/>
-        <v>0.74861783474024735</v>
-      </c>
-      <c r="M163">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7458,16 +6131,8 @@
       <c r="K164">
         <v>46992.649999999994</v>
       </c>
-      <c r="L164" s="1">
-        <f t="shared" si="4"/>
-        <v>0.59484220788473241</v>
-      </c>
-      <c r="M164">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7501,16 +6166,8 @@
       <c r="K165">
         <v>59916.97</v>
       </c>
-      <c r="L165" s="1">
-        <f t="shared" si="4"/>
-        <v>0.7584407928593786</v>
-      </c>
-      <c r="M165">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7544,16 +6201,8 @@
       <c r="K166">
         <v>71646.745999999999</v>
       </c>
-      <c r="L166" s="1">
-        <f t="shared" si="4"/>
-        <v>0.90691860489665133</v>
-      </c>
-      <c r="M166">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7587,16 +6236,8 @@
       <c r="K167">
         <v>42162.25</v>
       </c>
-      <c r="L167" s="1">
-        <f t="shared" si="4"/>
-        <v>0.53369805446996632</v>
-      </c>
-      <c r="M167">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7630,16 +6271,8 @@
       <c r="K168">
         <v>57563.34</v>
       </c>
-      <c r="L168" s="1">
-        <f t="shared" si="4"/>
-        <v>0.72864808132377157</v>
-      </c>
-      <c r="M168">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7673,16 +6306,8 @@
       <c r="K169">
         <v>50375.59</v>
       </c>
-      <c r="L169" s="1">
-        <f t="shared" si="4"/>
-        <v>0.63766412788161653</v>
-      </c>
-      <c r="M169">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7716,16 +6341,8 @@
       <c r="K170">
         <v>26258.89018018014</v>
       </c>
-      <c r="L170" s="1">
-        <f t="shared" si="4"/>
-        <v>0.33239019743260012</v>
-      </c>
-      <c r="M170">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7759,16 +6376,8 @@
       <c r="K171">
         <v>28037.491224489771</v>
       </c>
-      <c r="L171" s="1">
-        <f t="shared" si="4"/>
-        <v>0.35490407932994428</v>
-      </c>
-      <c r="M171">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7802,16 +6411,8 @@
       <c r="K172">
         <v>27869.721588983019</v>
       </c>
-      <c r="L172" s="1">
-        <f t="shared" si="4"/>
-        <v>0.35278041828080464</v>
-      </c>
-      <c r="M172">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7845,16 +6446,8 @@
       <c r="K173">
         <v>31048.472132352941</v>
       </c>
-      <c r="L173" s="1">
-        <f t="shared" si="4"/>
-        <v>0.39301766796842508</v>
-      </c>
-      <c r="M173">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7888,16 +6481,8 @@
       <c r="K174">
         <v>34628.488062015531</v>
       </c>
-      <c r="L174" s="1">
-        <f t="shared" si="4"/>
-        <v>0.43833421385087706</v>
-      </c>
-      <c r="M174">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7931,16 +6516,8 @@
       <c r="K175">
         <v>36333.532782608665</v>
       </c>
-      <c r="L175" s="1">
-        <f t="shared" si="4"/>
-        <v>0.45991700533294561</v>
-      </c>
-      <c r="M175">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7974,16 +6551,8 @@
       <c r="K176">
         <v>39059.981250000004</v>
       </c>
-      <c r="L176" s="1">
-        <f t="shared" si="4"/>
-        <v>0.49442892636797997</v>
-      </c>
-      <c r="M176">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8017,16 +6586,8 @@
       <c r="K177">
         <v>32077.335999999996</v>
       </c>
-      <c r="L177" s="1">
-        <f t="shared" si="4"/>
-        <v>0.40604122919861746</v>
-      </c>
-      <c r="M177">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8060,16 +6621,8 @@
       <c r="K178">
         <v>89591.98</v>
       </c>
-      <c r="L178" s="1">
-        <f t="shared" si="4"/>
-        <v>1.134072906975129</v>
-      </c>
-      <c r="M178">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8103,16 +6656,8 @@
       <c r="K179">
         <v>44372.1595652174</v>
       </c>
-      <c r="L179" s="1">
-        <f t="shared" si="4"/>
-        <v>0.56167152447005153</v>
-      </c>
-      <c r="M179">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8146,16 +6691,8 @@
       <c r="K180">
         <v>53174.967681159367</v>
       </c>
-      <c r="L180" s="1">
-        <f t="shared" si="4"/>
-        <v>0.67309920125083667</v>
-      </c>
-      <c r="M180">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8189,16 +6726,8 @@
       <c r="K181">
         <v>55774.558684210533</v>
       </c>
-      <c r="L181" s="1">
-        <f t="shared" si="4"/>
-        <v>0.70600533554741796</v>
-      </c>
-      <c r="M181">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8232,16 +6761,8 @@
       <c r="K182">
         <v>64894.655294117663</v>
       </c>
-      <c r="L182" s="1">
-        <f t="shared" si="4"/>
-        <v>0.82144931250039299</v>
-      </c>
-      <c r="M182">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8275,16 +6796,8 @@
       <c r="K183">
         <v>65207.194285714329</v>
       </c>
-      <c r="L183" s="1">
-        <f t="shared" si="4"/>
-        <v>0.82540549253730155</v>
-      </c>
-      <c r="M183">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8318,16 +6831,8 @@
       <c r="K184">
         <v>62946.319999999971</v>
       </c>
-      <c r="L184" s="1">
-        <f t="shared" si="4"/>
-        <v>0.79678690107961303</v>
-      </c>
-      <c r="M184">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8361,16 +6866,8 @@
       <c r="K185">
         <v>68261.25</v>
       </c>
-      <c r="L185" s="1">
-        <f t="shared" si="4"/>
-        <v>0.86406433054896237</v>
-      </c>
-      <c r="M185">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8404,16 +6901,8 @@
       <c r="K186">
         <v>60814.463333333326</v>
       </c>
-      <c r="L186" s="1">
-        <f t="shared" si="4"/>
-        <v>0.76980144002360162</v>
-      </c>
-      <c r="M186">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8447,16 +6936,8 @@
       <c r="K187">
         <v>101872.79</v>
       </c>
-      <c r="L187" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2895258157813549</v>
-      </c>
-      <c r="M187">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8490,16 +6971,8 @@
       <c r="K188">
         <v>84109.2</v>
       </c>
-      <c r="L188" s="1">
-        <f t="shared" si="4"/>
-        <v>1.0646707991870759</v>
-      </c>
-      <c r="M188">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8533,16 +7006,8 @@
       <c r="K189">
         <v>139421.495</v>
       </c>
-      <c r="L189" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7648247100853045</v>
-      </c>
-      <c r="M189">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8576,16 +7041,8 @@
       <c r="K190">
         <v>291066.22499999998</v>
       </c>
-      <c r="L190" s="1">
-        <f t="shared" si="4"/>
-        <v>3.6843735333009375</v>
-      </c>
-      <c r="M190">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8619,16 +7076,8 @@
       <c r="K191">
         <v>48453.913333333301</v>
       </c>
-      <c r="L191" s="1">
-        <f t="shared" si="4"/>
-        <v>0.61333916661127763</v>
-      </c>
-      <c r="M191">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8662,16 +7111,8 @@
       <c r="K192">
         <v>45981.51</v>
       </c>
-      <c r="L192" s="1">
-        <f t="shared" si="4"/>
-        <v>0.58204299885777688</v>
-      </c>
-      <c r="M192">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8705,16 +7146,8 @@
       <c r="K193">
         <v>109429.48250000001</v>
       </c>
-      <c r="L193" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3851799159652349</v>
-      </c>
-      <c r="M193">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8748,16 +7181,8 @@
       <c r="K194">
         <v>36165.769999999997</v>
       </c>
-      <c r="L194" s="1">
-        <f t="shared" si="4"/>
-        <v>0.45779343102913794</v>
-      </c>
-      <c r="M194">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8791,16 +7216,8 @@
       <c r="K195">
         <v>72120.125</v>
       </c>
-      <c r="L195" s="1">
-        <f t="shared" ref="L195:L258" si="6">K195/$L$1</f>
-        <v>0.91291072939965912</v>
-      </c>
-      <c r="M195">
-        <f t="shared" ref="M195:M258" ca="1" si="7">IF(RAND()&lt;G195/12,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8834,16 +7251,8 @@
       <c r="K196">
         <v>52249.15</v>
       </c>
-      <c r="L196" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66138001891999221</v>
-      </c>
-      <c r="M196">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8877,16 +7286,8 @@
       <c r="K197">
         <v>70706.242894736803</v>
       </c>
-      <c r="L197" s="1">
-        <f t="shared" si="6"/>
-        <v>0.89501353157864938</v>
-      </c>
-      <c r="M197">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8920,16 +7321,8 @@
       <c r="K198">
         <v>56576.870454545497</v>
       </c>
-      <c r="L198" s="1">
-        <f t="shared" si="6"/>
-        <v>0.71616115576351469</v>
-      </c>
-      <c r="M198">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8963,16 +7356,8 @@
       <c r="K199">
         <v>48433.34410714289</v>
       </c>
-      <c r="L199" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61307879729987291</v>
-      </c>
-      <c r="M199">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9006,16 +7391,8 @@
       <c r="K200">
         <v>57092.416206896523</v>
       </c>
-      <c r="L200" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72268703531263745</v>
-      </c>
-      <c r="M200">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9049,16 +7426,8 @@
       <c r="K201">
         <v>69374.196666666699</v>
       </c>
-      <c r="L201" s="1">
-        <f t="shared" si="6"/>
-        <v>0.87815222838953899</v>
-      </c>
-      <c r="M201">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9092,16 +7461,8 @@
       <c r="K202">
         <v>85683.839999999997</v>
       </c>
-      <c r="L202" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0846029020632408</v>
-      </c>
-      <c r="M202">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9135,16 +7496,8 @@
       <c r="K203">
         <v>48876.936666666668</v>
       </c>
-      <c r="L203" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61869387917987684</v>
-      </c>
-      <c r="M203">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9178,16 +7531,8 @@
       <c r="K204">
         <v>49845.22</v>
       </c>
-      <c r="L204" s="1">
-        <f t="shared" si="6"/>
-        <v>0.63095060008959325</v>
-      </c>
-      <c r="M204">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9221,16 +7566,8 @@
       <c r="K205">
         <v>59222.632500000007</v>
       </c>
-      <c r="L205" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74965173219739933</v>
-      </c>
-      <c r="M205">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9264,16 +7601,8 @@
       <c r="K206">
         <v>58981.820000000029</v>
       </c>
-      <c r="L206" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74660348020083755</v>
-      </c>
-      <c r="M206">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9307,16 +7636,8 @@
       <c r="K207">
         <v>79530.899999999994</v>
       </c>
-      <c r="L207" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0067177771642983</v>
-      </c>
-      <c r="M207">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9350,16 +7671,8 @@
       <c r="K208">
         <v>46195.91</v>
       </c>
-      <c r="L208" s="1">
-        <f t="shared" si="6"/>
-        <v>0.58475691623358961</v>
-      </c>
-      <c r="M208">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9393,16 +7706,8 @@
       <c r="K209">
         <v>51884.133333333375</v>
       </c>
-      <c r="L209" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65675956614887365</v>
-      </c>
-      <c r="M209">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9436,16 +7741,8 @@
       <c r="K210">
         <v>62661.086666666662</v>
       </c>
-      <c r="L210" s="1">
-        <f t="shared" si="6"/>
-        <v>0.79317636143644954</v>
-      </c>
-      <c r="M210">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9479,16 +7776,8 @@
       <c r="K211">
         <v>52558.125</v>
       </c>
-      <c r="L211" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66529108525017755</v>
-      </c>
-      <c r="M211">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9522,16 +7811,8 @@
       <c r="K212">
         <v>52031.054000000004</v>
       </c>
-      <c r="L212" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65861931684911879</v>
-      </c>
-      <c r="M212">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9565,16 +7846,8 @@
       <c r="K213">
         <v>67274.06</v>
       </c>
-      <c r="L213" s="1">
-        <f t="shared" si="6"/>
-        <v>0.85156828533334394</v>
-      </c>
-      <c r="M213">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9608,16 +7881,8 @@
       <c r="K214">
         <v>57870.264117647006</v>
       </c>
-      <c r="L214" s="1">
-        <f t="shared" si="6"/>
-        <v>0.73253318718169236</v>
-      </c>
-      <c r="M214">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9651,16 +7916,8 @@
       <c r="K215">
         <v>60481.841509433951</v>
       </c>
-      <c r="L215" s="1">
-        <f t="shared" si="6"/>
-        <v>0.76559104754480012</v>
-      </c>
-      <c r="M215">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9694,16 +7951,8 @@
       <c r="K216">
         <v>64642.55772727268</v>
       </c>
-      <c r="L216" s="1">
-        <f t="shared" si="6"/>
-        <v>0.81825821190775905</v>
-      </c>
-      <c r="M216">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9737,16 +7986,8 @@
       <c r="K217">
         <v>76966.894705882412</v>
       </c>
-      <c r="L217" s="1">
-        <f t="shared" si="6"/>
-        <v>0.97426209377166051</v>
-      </c>
-      <c r="M217">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9780,16 +8021,8 @@
       <c r="K218">
         <v>75849.331111111096</v>
       </c>
-      <c r="L218" s="1">
-        <f t="shared" si="6"/>
-        <v>0.96011575394691406</v>
-      </c>
-      <c r="M218">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9823,16 +8056,8 @@
       <c r="K219">
         <v>163584.53499999997</v>
       </c>
-      <c r="L219" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0706852236508748</v>
-      </c>
-      <c r="M219">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9866,16 +8091,8 @@
       <c r="K220">
         <v>115064.97333333334</v>
       </c>
-      <c r="L220" s="1">
-        <f t="shared" si="6"/>
-        <v>1.456515067522216</v>
-      </c>
-      <c r="M220">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9909,16 +8126,8 @@
       <c r="K221">
         <v>88018.34</v>
       </c>
-      <c r="L221" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1141534622956795</v>
-      </c>
-      <c r="M221">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9952,16 +8161,8 @@
       <c r="K222">
         <v>134521.5</v>
       </c>
-      <c r="L222" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7027996094701201</v>
-      </c>
-      <c r="M222">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9995,16 +8196,8 @@
       <c r="K223">
         <v>60811.39</v>
       </c>
-      <c r="L223" s="1">
-        <f t="shared" si="6"/>
-        <v>0.76976253716569598</v>
-      </c>
-      <c r="M223">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10038,16 +8231,8 @@
       <c r="K224">
         <v>43657.869999999995</v>
       </c>
-      <c r="L224" s="1">
-        <f t="shared" si="6"/>
-        <v>0.55262990664166889</v>
-      </c>
-      <c r="M224">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10081,16 +8266,8 @@
       <c r="K225">
         <v>154544.60999999999</v>
       </c>
-      <c r="L225" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9562560747071063</v>
-      </c>
-      <c r="M225">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10124,16 +8301,8 @@
       <c r="K226">
         <v>63068.504166666709</v>
       </c>
-      <c r="L226" s="1">
-        <f t="shared" si="6"/>
-        <v>0.79833353229680548</v>
-      </c>
-      <c r="M226">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10167,16 +8336,8 @@
       <c r="K227">
         <v>78854.885128205162</v>
       </c>
-      <c r="L227" s="1">
-        <f t="shared" si="6"/>
-        <v>0.99816064793448578</v>
-      </c>
-      <c r="M227">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10210,16 +8371,8 @@
       <c r="K228">
         <v>80387.314999999988</v>
       </c>
-      <c r="L228" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0175584467044414</v>
-      </c>
-      <c r="M228">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10253,16 +8406,8 @@
       <c r="K229">
         <v>72250.339999999967</v>
       </c>
-      <c r="L229" s="1">
-        <f t="shared" si="6"/>
-        <v>0.9145590164849734</v>
-      </c>
-      <c r="M229">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10296,16 +8441,8 @@
       <c r="K230">
         <v>85798.542000000001</v>
       </c>
-      <c r="L230" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0860548225429072</v>
-      </c>
-      <c r="M230">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10339,16 +8476,8 @@
       <c r="K231">
         <v>113656.296</v>
       </c>
-      <c r="L231" s="1">
-        <f t="shared" si="6"/>
-        <v>1.438683752728154</v>
-      </c>
-      <c r="M231">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10382,16 +8511,8 @@
       <c r="K232">
         <v>142099.91249999998</v>
       </c>
-      <c r="L232" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7987286456866611</v>
-      </c>
-      <c r="M232">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10425,16 +8546,8 @@
       <c r="K233">
         <v>177864.89</v>
       </c>
-      <c r="L233" s="1">
-        <f t="shared" si="6"/>
-        <v>2.2514487664086849</v>
-      </c>
-      <c r="M233">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10468,16 +8581,8 @@
       <c r="K234">
         <v>62284.378333333334</v>
       </c>
-      <c r="L234" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78840791324873127</v>
-      </c>
-      <c r="M234">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10511,16 +8616,8 @@
       <c r="K235">
         <v>80973.772727272692</v>
       </c>
-      <c r="L235" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0249819439816104</v>
-      </c>
-      <c r="M235">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10554,16 +8651,8 @@
       <c r="K236">
         <v>85988.368000000002</v>
       </c>
-      <c r="L236" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0884576773926322</v>
-      </c>
-      <c r="M236">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10597,16 +8686,8 @@
       <c r="K237">
         <v>94342.755000000005</v>
       </c>
-      <c r="L237" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1942091514764199</v>
-      </c>
-      <c r="M237">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10640,16 +8721,8 @@
       <c r="K238">
         <v>71530.296000000002</v>
       </c>
-      <c r="L238" s="1">
-        <f t="shared" si="6"/>
-        <v>0.90544455788912626</v>
-      </c>
-      <c r="M238">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10683,16 +8756,8 @@
       <c r="K239">
         <v>78260.803333333301</v>
       </c>
-      <c r="L239" s="1">
-        <f t="shared" si="6"/>
-        <v>0.99064064370987404</v>
-      </c>
-      <c r="M239">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10726,16 +8791,8 @@
       <c r="K240">
         <v>90101.046000000002</v>
       </c>
-      <c r="L240" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1405167645443244</v>
-      </c>
-      <c r="M240">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10769,16 +8826,8 @@
       <c r="K241">
         <v>132651.66666666628</v>
       </c>
-      <c r="L241" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6791308913114995</v>
-      </c>
-      <c r="M241">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10812,16 +8861,8 @@
       <c r="K242">
         <v>198937.16</v>
       </c>
-      <c r="L242" s="1">
-        <f t="shared" si="6"/>
-        <v>2.5181857053117516</v>
-      </c>
-      <c r="M242">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10855,16 +8896,8 @@
       <c r="K243">
         <v>71103.899999999994</v>
       </c>
-      <c r="L243" s="1">
-        <f t="shared" si="6"/>
-        <v>0.90004715344240482</v>
-      </c>
-      <c r="M243">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10898,16 +8931,8 @@
       <c r="K244">
         <v>82814.657999999996</v>
       </c>
-      <c r="L244" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0482842318945413</v>
-      </c>
-      <c r="M244">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10941,16 +8966,8 @@
       <c r="K245">
         <v>103962.12</v>
       </c>
-      <c r="L245" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3159729659250436</v>
-      </c>
-      <c r="M245">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10984,16 +9001,8 @@
       <c r="K246">
         <v>98874.549999999988</v>
       </c>
-      <c r="L246" s="1">
-        <f t="shared" si="6"/>
-        <v>1.2515735040609408</v>
-      </c>
-      <c r="M246">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11027,16 +9036,8 @@
       <c r="K247">
         <v>156775.85500000001</v>
       </c>
-      <c r="L247" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9844996128376817</v>
-      </c>
-      <c r="M247">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11070,16 +9071,8 @@
       <c r="K248">
         <v>146778.89000000001</v>
       </c>
-      <c r="L248" s="1">
-        <f t="shared" si="6"/>
-        <v>1.8579560633092684</v>
-      </c>
-      <c r="M248">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11113,16 +9106,8 @@
       <c r="K249">
         <v>156144.1499999997</v>
       </c>
-      <c r="L249" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9765033666814846</v>
-      </c>
-      <c r="M249">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11156,16 +9141,8 @@
       <c r="K250">
         <v>278455.83999999997</v>
       </c>
-      <c r="L250" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5247487993121855</v>
-      </c>
-      <c r="M250">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11199,16 +9176,8 @@
       <c r="K251">
         <v>165978.32</v>
       </c>
-      <c r="L251" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1009862250755948</v>
-      </c>
-      <c r="M251">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11242,16 +9211,8 @@
       <c r="K252">
         <v>315281.75999999995</v>
       </c>
-      <c r="L252" s="1">
-        <f t="shared" si="6"/>
-        <v>3.9908985389030902</v>
-      </c>
-      <c r="M252">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11285,16 +9246,8 @@
       <c r="K253">
         <v>25373.462500000001</v>
       </c>
-      <c r="L253" s="1">
-        <f t="shared" si="6"/>
-        <v>0.3211822796794917</v>
-      </c>
-      <c r="M253">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11328,16 +9281,8 @@
       <c r="K254">
         <v>18279.71</v>
       </c>
-      <c r="L254" s="1">
-        <f t="shared" si="6"/>
-        <v>0.23138816508310603</v>
-      </c>
-      <c r="M254">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11371,16 +9316,8 @@
       <c r="K255">
         <v>27743.915000000001</v>
       </c>
-      <c r="L255" s="1">
-        <f t="shared" si="6"/>
-        <v>0.35118793372934592</v>
-      </c>
-      <c r="M255">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11414,16 +9351,8 @@
       <c r="K256">
         <v>31331.750434782643</v>
       </c>
-      <c r="L256" s="1">
-        <f t="shared" si="6"/>
-        <v>0.39660346044582578</v>
-      </c>
-      <c r="M256">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11457,16 +9386,8 @@
       <c r="K257">
         <v>31565.697500000002</v>
       </c>
-      <c r="L257" s="1">
-        <f t="shared" si="6"/>
-        <v>0.39956480841837139</v>
-      </c>
-      <c r="M257">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11500,16 +9421,8 @@
       <c r="K258">
         <v>31107.599999999969</v>
       </c>
-      <c r="L258" s="1">
-        <f t="shared" si="6"/>
-        <v>0.39376612014847184</v>
-      </c>
-      <c r="M258">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11543,16 +9456,8 @@
       <c r="K259">
         <v>24061.09</v>
       </c>
-      <c r="L259" s="1">
-        <f t="shared" ref="L259:L322" si="8">K259/$L$1</f>
-        <v>0.30457001041042076</v>
-      </c>
-      <c r="M259">
-        <f t="shared" ref="M259:M322" ca="1" si="9">IF(RAND()&lt;G259/12,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11586,16 +9491,8 @@
       <c r="K260">
         <v>27577.816666666669</v>
       </c>
-      <c r="L260" s="1">
-        <f t="shared" si="8"/>
-        <v>0.34908542835188855</v>
-      </c>
-      <c r="M260">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11629,16 +9526,8 @@
       <c r="K261">
         <v>27279.186666666701</v>
       </c>
-      <c r="L261" s="1">
-        <f t="shared" si="8"/>
-        <v>0.34530531106672591</v>
-      </c>
-      <c r="M261">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11672,16 +9561,8 @@
       <c r="K262">
         <v>32116.306874999998</v>
       </c>
-      <c r="L262" s="1">
-        <f t="shared" si="8"/>
-        <v>0.40653453020054436</v>
-      </c>
-      <c r="M262">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11715,16 +9596,8 @@
       <c r="K263">
         <v>33928.363333333298</v>
       </c>
-      <c r="L263" s="1">
-        <f t="shared" si="8"/>
-        <v>0.42947189730980018</v>
-      </c>
-      <c r="M263">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11758,16 +9631,8 @@
       <c r="K264">
         <v>15580.255000000001</v>
       </c>
-      <c r="L264" s="1">
-        <f t="shared" si="8"/>
-        <v>0.19721793266834586</v>
-      </c>
-      <c r="M264">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11801,16 +9666,8 @@
       <c r="K265">
         <v>43388.08</v>
       </c>
-      <c r="L265" s="1">
-        <f t="shared" si="8"/>
-        <v>0.54921485174978224</v>
-      </c>
-      <c r="M265">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11844,16 +9701,8 @@
       <c r="K266">
         <v>46707.457999999999</v>
       </c>
-      <c r="L266" s="1">
-        <f t="shared" si="8"/>
-        <v>0.59123219144703287</v>
-      </c>
-      <c r="M266">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11887,16 +9736,8 @@
       <c r="K267">
         <v>56680.020000000004</v>
       </c>
-      <c r="L267" s="1">
-        <f t="shared" si="8"/>
-        <v>0.71746684300099695</v>
-      </c>
-      <c r="M267">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11930,16 +9771,8 @@
       <c r="K268">
         <v>58872.664285714331</v>
       </c>
-      <c r="L268" s="1">
-        <f t="shared" si="8"/>
-        <v>0.74522176569678344</v>
-      </c>
-      <c r="M268">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11973,16 +9806,8 @@
       <c r="K269">
         <v>40860.771999999997</v>
       </c>
-      <c r="L269" s="1">
-        <f t="shared" si="8"/>
-        <v>0.51722368992501278</v>
-      </c>
-      <c r="M269">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12016,16 +9841,8 @@
       <c r="K270">
         <v>63820.534285714304</v>
       </c>
-      <c r="L270" s="1">
-        <f t="shared" si="8"/>
-        <v>0.80785287747972423</v>
-      </c>
-      <c r="M270">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12059,16 +9876,8 @@
       <c r="K271">
         <v>33142.450000000004</v>
       </c>
-      <c r="L271" s="1">
-        <f t="shared" si="8"/>
-        <v>0.41952365173509804</v>
-      </c>
-      <c r="M271">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12102,16 +9911,8 @@
       <c r="K272">
         <v>46609.7</v>
       </c>
-      <c r="L272" s="1">
-        <f t="shared" si="8"/>
-        <v>0.58999475145251468</v>
-      </c>
-      <c r="M272">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12145,16 +9946,8 @@
       <c r="K273">
         <v>26258.35</v>
       </c>
-      <c r="L273" s="1">
-        <f t="shared" si="8"/>
-        <v>0.33238335972561805</v>
-      </c>
-      <c r="M273">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12188,16 +9981,8 @@
       <c r="K274">
         <v>38398.872499999998</v>
       </c>
-      <c r="L274" s="1">
-        <f t="shared" si="8"/>
-        <v>0.48606048176011218</v>
-      </c>
-      <c r="M274">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12231,16 +10016,8 @@
       <c r="K275">
         <v>27362.969999999998</v>
       </c>
-      <c r="L275" s="1">
-        <f t="shared" si="8"/>
-        <v>0.34636585698154276</v>
-      </c>
-      <c r="M275">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12274,16 +10051,8 @@
       <c r="K276">
         <v>32876.465714285725</v>
       </c>
-      <c r="L276" s="1">
-        <f t="shared" si="8"/>
-        <v>0.41615677032328308</v>
-      </c>
-      <c r="M276">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12317,16 +10086,8 @@
       <c r="K277">
         <v>36283.419411764728</v>
       </c>
-      <c r="L277" s="1">
-        <f t="shared" si="8"/>
-        <v>0.459282660426724</v>
-      </c>
-      <c r="M277">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12360,16 +10121,8 @@
       <c r="K278">
         <v>35555.016875000001</v>
       </c>
-      <c r="L278" s="1">
-        <f t="shared" si="8"/>
-        <v>0.45006239782825447</v>
-      </c>
-      <c r="M278">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12403,16 +10156,8 @@
       <c r="K279">
         <v>39652.750909090893</v>
       </c>
-      <c r="L279" s="1">
-        <f t="shared" si="8"/>
-        <v>0.50193232131975873</v>
-      </c>
-      <c r="M279">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12446,16 +10191,8 @@
       <c r="K280">
         <v>34485.021333333367</v>
       </c>
-      <c r="L280" s="1">
-        <f t="shared" si="8"/>
-        <v>0.43651818377708262</v>
-      </c>
-      <c r="M280">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12489,16 +10226,8 @@
       <c r="K281">
         <v>39610.883333333295</v>
       </c>
-      <c r="L281" s="1">
-        <f t="shared" si="8"/>
-        <v>0.50140235330981608</v>
-      </c>
-      <c r="M281">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12532,16 +10261,8 @@
       <c r="K282">
         <v>41625.07</v>
       </c>
-      <c r="L282" s="1">
-        <f t="shared" si="8"/>
-        <v>0.52689832435831008</v>
-      </c>
-      <c r="M282">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12575,16 +10296,8 @@
       <c r="K283">
         <v>32055.42</v>
       </c>
-      <c r="L283" s="1">
-        <f t="shared" si="8"/>
-        <v>0.40576381215939961</v>
-      </c>
-      <c r="M283">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12618,16 +10331,8 @@
       <c r="K284">
         <v>46257.635999999999</v>
       </c>
-      <c r="L284" s="1">
-        <f t="shared" si="8"/>
-        <v>0.58553825608405319</v>
-      </c>
-      <c r="M284">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12661,16 +10366,8 @@
       <c r="K285">
         <v>22071.384999999998</v>
       </c>
-      <c r="L285" s="1">
-        <f t="shared" si="8"/>
-        <v>0.27938393311451826</v>
-      </c>
-      <c r="M285">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12704,16 +10401,8 @@
       <c r="K286">
         <v>49943.1323076923</v>
       </c>
-      <c r="L286" s="1">
-        <f t="shared" si="8"/>
-        <v>0.63218999334123527</v>
-      </c>
-      <c r="M286">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12747,16 +10436,8 @@
       <c r="K287">
         <v>67726.201333333331</v>
       </c>
-      <c r="L287" s="1">
-        <f t="shared" si="8"/>
-        <v>0.85729157927390587</v>
-      </c>
-      <c r="M287">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12790,16 +10471,8 @@
       <c r="K288">
         <v>72500.712499999994</v>
       </c>
-      <c r="L288" s="1">
-        <f t="shared" si="8"/>
-        <v>0.91772828084213631</v>
-      </c>
-      <c r="M288">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12833,16 +10506,8 @@
       <c r="K289">
         <v>55534.826666666704</v>
       </c>
-      <c r="L289" s="1">
-        <f t="shared" si="8"/>
-        <v>0.7029707605103338</v>
-      </c>
-      <c r="M289">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12876,16 +10541,8 @@
       <c r="K290">
         <v>65329.119999999995</v>
       </c>
-      <c r="L290" s="1">
-        <f t="shared" si="8"/>
-        <v>0.82694885221341274</v>
-      </c>
-      <c r="M290">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12919,16 +10576,8 @@
       <c r="K291">
         <v>61188.800000000003</v>
       </c>
-      <c r="L291" s="1">
-        <f t="shared" si="8"/>
-        <v>0.77453986718810963</v>
-      </c>
-      <c r="M291">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12962,16 +10611,8 @@
       <c r="K292">
         <v>20778.314999999999</v>
       </c>
-      <c r="L292" s="1">
-        <f t="shared" si="8"/>
-        <v>0.2630159986875491</v>
-      </c>
-      <c r="M292">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13005,16 +10646,8 @@
       <c r="K293">
         <v>59412.44</v>
       </c>
-      <c r="L293" s="1">
-        <f t="shared" si="8"/>
-        <v>0.75205435287048494</v>
-      </c>
-      <c r="M293">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13048,16 +10681,8 @@
       <c r="K294">
         <v>38391.392</v>
       </c>
-      <c r="L294" s="1">
-        <f t="shared" si="8"/>
-        <v>0.48596579211958157</v>
-      </c>
-      <c r="M294">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13091,16 +10716,8 @@
       <c r="K295">
         <v>119709.505</v>
       </c>
-      <c r="L295" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5153064630104585</v>
-      </c>
-      <c r="M295">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13134,16 +10751,8 @@
       <c r="K296">
         <v>41556.03</v>
       </c>
-      <c r="L296" s="1">
-        <f t="shared" si="8"/>
-        <v>0.52602440245706894</v>
-      </c>
-      <c r="M296">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13177,16 +10786,8 @@
       <c r="K297">
         <v>55765.676666666615</v>
       </c>
-      <c r="L297" s="1">
-        <f t="shared" si="8"/>
-        <v>0.70589290522211623</v>
-      </c>
-      <c r="M297">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13220,16 +10821,8 @@
       <c r="K298">
         <v>56094.695499999994</v>
       </c>
-      <c r="L298" s="1">
-        <f t="shared" si="8"/>
-        <v>0.71005769033756905</v>
-      </c>
-      <c r="M298">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13263,16 +10856,8 @@
       <c r="K299">
         <v>48256.430800000002</v>
       </c>
-      <c r="L299" s="1">
-        <f t="shared" si="8"/>
-        <v>0.61083939385646069</v>
-      </c>
-      <c r="M299">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13306,16 +10891,8 @@
       <c r="K300">
         <v>75694.287368421035</v>
       </c>
-      <c r="L300" s="1">
-        <f t="shared" si="8"/>
-        <v>0.95815317975242908</v>
-      </c>
-      <c r="M300">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13349,16 +10926,8 @@
       <c r="K301">
         <v>79169.167692307674</v>
       </c>
-      <c r="L301" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0021388984551611</v>
-      </c>
-      <c r="M301">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -13392,16 +10961,8 @@
       <c r="K302">
         <v>92028.810000000012</v>
       </c>
-      <c r="L302" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1649187804774694</v>
-      </c>
-      <c r="M302">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -13435,16 +10996,8 @@
       <c r="K303">
         <v>83471.984444444402</v>
       </c>
-      <c r="L303" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0566047993346481</v>
-      </c>
-      <c r="M303">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -13478,16 +11031,8 @@
       <c r="K304">
         <v>117060.018</v>
       </c>
-      <c r="L304" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4817687353691806</v>
-      </c>
-      <c r="M304">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -13521,16 +11066,8 @@
       <c r="K305">
         <v>89943.84</v>
       </c>
-      <c r="L305" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1385268200714604</v>
-      </c>
-      <c r="M305">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13564,16 +11101,8 @@
       <c r="K306">
         <v>61025.57</v>
       </c>
-      <c r="L306" s="1">
-        <f t="shared" si="8"/>
-        <v>0.77247366973823128</v>
-      </c>
-      <c r="M306">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13607,16 +11136,8 @@
       <c r="K307">
         <v>78334.679999999993</v>
       </c>
-      <c r="L307" s="1">
-        <f t="shared" si="8"/>
-        <v>0.99157578908922972</v>
-      </c>
-      <c r="M307">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13650,16 +11171,8 @@
       <c r="K308">
         <v>31497.605</v>
       </c>
-      <c r="L308" s="1">
-        <f t="shared" si="8"/>
-        <v>0.39870288015851818</v>
-      </c>
-      <c r="M308">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13693,16 +11206,8 @@
       <c r="K309">
         <v>65128.125999999997</v>
       </c>
-      <c r="L309" s="1">
-        <f t="shared" si="8"/>
-        <v>0.82440463062276859</v>
-      </c>
-      <c r="M309">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13736,16 +11241,8 @@
       <c r="K310">
         <v>67531.5</v>
       </c>
-      <c r="L310" s="1">
-        <f t="shared" si="8"/>
-        <v>0.85482701149579376</v>
-      </c>
-      <c r="M310">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13779,16 +11276,8 @@
       <c r="K311">
         <v>69634.50428571424</v>
       </c>
-      <c r="L311" s="1">
-        <f t="shared" si="8"/>
-        <v>0.88144725343799768</v>
-      </c>
-      <c r="M311">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13822,16 +11311,8 @@
       <c r="K312">
         <v>97465.89499999999</v>
       </c>
-      <c r="L312" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2337424719666055</v>
-      </c>
-      <c r="M312">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13865,16 +11346,8 @@
       <c r="K313">
         <v>101011.5125</v>
       </c>
-      <c r="L313" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2786235957596828</v>
-      </c>
-      <c r="M313">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13908,16 +11381,8 @@
       <c r="K314">
         <v>98906.414999999994</v>
       </c>
-      <c r="L314" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2519768574992816</v>
-      </c>
-      <c r="M314">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13951,16 +11416,8 @@
       <c r="K315">
         <v>28209.404999999999</v>
       </c>
-      <c r="L315" s="1">
-        <f t="shared" si="8"/>
-        <v>0.35708019771846472</v>
-      </c>
-      <c r="M315">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13994,16 +11451,8 @@
       <c r="K316">
         <v>33193.145000000004</v>
       </c>
-      <c r="L316" s="1">
-        <f t="shared" si="8"/>
-        <v>0.42016535901759255</v>
-      </c>
-      <c r="M316">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -14037,16 +11486,8 @@
       <c r="K317">
         <v>39206.163200000003</v>
       </c>
-      <c r="L317" s="1">
-        <f t="shared" si="8"/>
-        <v>0.49627932624734189</v>
-      </c>
-      <c r="M317">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -14080,16 +11521,8 @@
       <c r="K318">
         <v>46515.576756756796</v>
       </c>
-      <c r="L318" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5888033209240372</v>
-      </c>
-      <c r="M318">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14123,16 +11556,8 @@
       <c r="K319">
         <v>41790.839500000002</v>
       </c>
-      <c r="L319" s="1">
-        <f t="shared" si="8"/>
-        <v>0.52899666729874761</v>
-      </c>
-      <c r="M319">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14166,16 +11591,8 @@
       <c r="K320">
         <v>38165.959523809499</v>
       </c>
-      <c r="L320" s="1">
-        <f t="shared" si="8"/>
-        <v>0.48311222348988991</v>
-      </c>
-      <c r="M320">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14209,16 +11626,8 @@
       <c r="K321">
         <v>38853.436923076893</v>
       </c>
-      <c r="L321" s="1">
-        <f t="shared" si="8"/>
-        <v>0.49181444764730753</v>
-      </c>
-      <c r="M321">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14252,16 +11661,8 @@
       <c r="K322">
         <v>39893.400000000031</v>
       </c>
-      <c r="L322" s="1">
-        <f t="shared" si="8"/>
-        <v>0.50497850485190354</v>
-      </c>
-      <c r="M322">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14295,16 +11696,8 @@
       <c r="K323">
         <v>52656.394</v>
       </c>
-      <c r="L323" s="1">
-        <f t="shared" ref="L323:L386" si="10">K323/$L$1</f>
-        <v>0.66653499358321733</v>
-      </c>
-      <c r="M323">
-        <f t="shared" ref="M323:M386" ca="1" si="11">IF(RAND()&lt;G323/12,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14338,16 +11731,8 @@
       <c r="K324">
         <v>63427.825000000004</v>
       </c>
-      <c r="L324" s="1">
-        <f t="shared" si="10"/>
-        <v>0.80288188608913169</v>
-      </c>
-      <c r="M324">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14381,16 +11766,8 @@
       <c r="K325">
         <v>48017.556666666671</v>
       </c>
-      <c r="L325" s="1">
-        <f t="shared" si="10"/>
-        <v>0.60781567808647219</v>
-      </c>
-      <c r="M325">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14424,16 +11801,8 @@
       <c r="K326">
         <v>49545.295000000006</v>
       </c>
-      <c r="L326" s="1">
-        <f t="shared" si="10"/>
-        <v>0.62715409043968362</v>
-      </c>
-      <c r="M326">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14467,16 +11836,8 @@
       <c r="K327">
         <v>73850.875</v>
       </c>
-      <c r="L327" s="1">
-        <f t="shared" si="10"/>
-        <v>0.93481890336508777</v>
-      </c>
-      <c r="M327">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14510,16 +11871,8 @@
       <c r="K328">
         <v>65988.42</v>
       </c>
-      <c r="L328" s="1">
-        <f t="shared" si="10"/>
-        <v>0.83529440130797128</v>
-      </c>
-      <c r="M328">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14553,16 +11906,8 @@
       <c r="K329">
         <v>77612.819230769295</v>
       </c>
-      <c r="L329" s="1">
-        <f t="shared" si="10"/>
-        <v>0.98243833347107323</v>
-      </c>
-      <c r="M329">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14596,16 +11941,8 @@
       <c r="K330">
         <v>60767.266216216172</v>
       </c>
-      <c r="L330" s="1">
-        <f t="shared" si="10"/>
-        <v>0.7692040096307261</v>
-      </c>
-      <c r="M330">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14639,16 +11976,8 @@
       <c r="K331">
         <v>76627.8</v>
       </c>
-      <c r="L331" s="1">
-        <f t="shared" si="10"/>
-        <v>0.96996976627940124</v>
-      </c>
-      <c r="M331">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14682,16 +12011,8 @@
       <c r="K332">
         <v>86038.672500000001</v>
       </c>
-      <c r="L332" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0890944416493094</v>
-      </c>
-      <c r="M332">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14725,16 +12046,8 @@
       <c r="K333">
         <v>94497.9</v>
       </c>
-      <c r="L333" s="1">
-        <f t="shared" si="10"/>
-        <v>1.196173007405853</v>
-      </c>
-      <c r="M333">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14768,16 +12081,8 @@
       <c r="K334">
         <v>166981.36000000002</v>
       </c>
-      <c r="L334" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1136829027091548</v>
-      </c>
-      <c r="M334">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14811,16 +12116,8 @@
       <c r="K335">
         <v>63189.775000000001</v>
       </c>
-      <c r="L335" s="1">
-        <f t="shared" si="10"/>
-        <v>0.79986860236099633</v>
-      </c>
-      <c r="M335">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14854,16 +12151,8 @@
       <c r="K336">
         <v>92620.4983333337</v>
       </c>
-      <c r="L336" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1724084877951</v>
-      </c>
-      <c r="M336">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14897,16 +12186,8 @@
       <c r="K337">
         <v>75604.67</v>
       </c>
-      <c r="L337" s="1">
-        <f t="shared" si="10"/>
-        <v>0.95701878547382613</v>
-      </c>
-      <c r="M337">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14940,16 +12221,8 @@
       <c r="K338">
         <v>307055.57</v>
       </c>
-      <c r="L338" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8867698076636459</v>
-      </c>
-      <c r="M338">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14983,16 +12256,8 @@
       <c r="K339">
         <v>59551.58</v>
       </c>
-      <c r="L339" s="1">
-        <f t="shared" si="10"/>
-        <v>0.75381561436148581</v>
-      </c>
-      <c r="M339">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -15026,16 +12291,8 @@
       <c r="K340">
         <v>53777.582999999999</v>
       </c>
-      <c r="L340" s="1">
-        <f t="shared" si="10"/>
-        <v>0.68072722450052203</v>
-      </c>
-      <c r="M340">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -15069,16 +12326,8 @@
       <c r="K341">
         <v>73172.142307692324</v>
       </c>
-      <c r="L341" s="1">
-        <f t="shared" si="10"/>
-        <v>0.92622737142858602</v>
-      </c>
-      <c r="M341">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -15112,16 +12361,8 @@
       <c r="K342">
         <v>70860.8789655172</v>
       </c>
-      <c r="L342" s="1">
-        <f t="shared" si="10"/>
-        <v>0.89697094538190647</v>
-      </c>
-      <c r="M342">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -15155,16 +12396,8 @@
       <c r="K343">
         <v>91971.860666666311</v>
       </c>
-      <c r="L343" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1641979046133124</v>
-      </c>
-      <c r="M343">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15198,16 +12431,8 @@
       <c r="K344">
         <v>83904.88</v>
       </c>
-      <c r="L344" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0620844764341559</v>
-      </c>
-      <c r="M344">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15241,16 +12466,8 @@
       <c r="K345">
         <v>132411.42000000001</v>
       </c>
-      <c r="L345" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6760898017445842</v>
-      </c>
-      <c r="M345">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15284,16 +12501,8 @@
       <c r="K346">
         <v>66224.938333333295</v>
       </c>
-      <c r="L346" s="1">
-        <f t="shared" si="10"/>
-        <v>0.83828829689813689</v>
-      </c>
-      <c r="M346">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15327,16 +12536,8 @@
       <c r="K347">
         <v>147894.405</v>
       </c>
-      <c r="L347" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8720764716184088</v>
-      </c>
-      <c r="M347">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15370,16 +12571,8 @@
       <c r="K348">
         <v>139581.4</v>
       </c>
-      <c r="L348" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7668488190311036</v>
-      </c>
-      <c r="M348">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15413,16 +12606,8 @@
       <c r="K349">
         <v>66955.56</v>
       </c>
-      <c r="L349" s="1">
-        <f t="shared" si="10"/>
-        <v>0.84753664967944298</v>
-      </c>
-      <c r="M349">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -15456,16 +12641,8 @@
       <c r="K350">
         <v>113300.13</v>
       </c>
-      <c r="L350" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4341753334367655</v>
-      </c>
-      <c r="M350">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -15499,16 +12676,8 @@
       <c r="K351">
         <v>50936.58</v>
       </c>
-      <c r="L351" s="1">
-        <f t="shared" si="10"/>
-        <v>0.64476524965706994</v>
-      </c>
-      <c r="M351">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -15542,16 +12711,8 @@
       <c r="K352">
         <v>118240.31000000001</v>
       </c>
-      <c r="L352" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4967091036869642</v>
-      </c>
-      <c r="M352">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15585,16 +12746,8 @@
       <c r="K353">
         <v>98912.86</v>
       </c>
-      <c r="L353" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2520584395771135</v>
-      </c>
-      <c r="M353">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15628,16 +12781,8 @@
       <c r="K354">
         <v>136502.82999999999</v>
       </c>
-      <c r="L354" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7278796743685296</v>
-      </c>
-      <c r="M354">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15671,16 +12816,8 @@
       <c r="K355">
         <v>47839.964999999997</v>
       </c>
-      <c r="L355" s="1">
-        <f t="shared" si="10"/>
-        <v>0.605567687834764</v>
-      </c>
-      <c r="M355">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15714,16 +12851,8 @@
       <c r="K356">
         <v>83325.790000000008</v>
       </c>
-      <c r="L356" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0547542412981512</v>
-      </c>
-      <c r="M356">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15757,16 +12886,8 @@
       <c r="K357">
         <v>77210.31166666669</v>
       </c>
-      <c r="L357" s="1">
-        <f t="shared" si="10"/>
-        <v>0.9773433135451679</v>
-      </c>
-      <c r="M357">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15800,16 +12921,8 @@
       <c r="K358">
         <v>90315.30799999999</v>
       </c>
-      <c r="L358" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1432289350889902</v>
-      </c>
-      <c r="M358">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15843,16 +12956,8 @@
       <c r="K359">
         <v>178546.62666666671</v>
       </c>
-      <c r="L359" s="1">
-        <f t="shared" si="10"/>
-        <v>2.2600783232435515</v>
-      </c>
-      <c r="M359">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15886,16 +12991,8 @@
       <c r="K360">
         <v>140950.6</v>
       </c>
-      <c r="L360" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7841804219740274</v>
-      </c>
-      <c r="M360">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15929,16 +13026,8 @@
       <c r="K361">
         <v>74129.977142857198</v>
       </c>
-      <c r="L361" s="1">
-        <f t="shared" si="10"/>
-        <v>0.93835183319310422</v>
-      </c>
-      <c r="M361">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15972,16 +13061,8 @@
       <c r="K362">
         <v>157823.16333333301</v>
       </c>
-      <c r="L362" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9977566477428399</v>
-      </c>
-      <c r="M362">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -16015,16 +13096,8 @@
       <c r="K363">
         <v>173651.03</v>
       </c>
-      <c r="L363" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1981088975969203</v>
-      </c>
-      <c r="M363">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -16058,16 +13131,8 @@
       <c r="K364">
         <v>91749.97</v>
       </c>
-      <c r="L364" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1613891689053069</v>
-      </c>
-      <c r="M364">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -16101,16 +13166,8 @@
       <c r="K365">
         <v>216578.22</v>
       </c>
-      <c r="L365" s="1">
-        <f t="shared" si="10"/>
-        <v>2.7414897130624754</v>
-      </c>
-      <c r="M365">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -16144,16 +13201,8 @@
       <c r="K366">
         <v>83364.73</v>
       </c>
-      <c r="L366" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0552471514782544</v>
-      </c>
-      <c r="M366">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -16187,16 +13236,8 @@
       <c r="K367">
         <v>160824.49875</v>
       </c>
-      <c r="L367" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0357481418563412</v>
-      </c>
-      <c r="M367">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -16230,16 +13271,8 @@
       <c r="K368">
         <v>134170.79999999999</v>
       </c>
-      <c r="L368" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6983603798819784</v>
-      </c>
-      <c r="M368">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -16273,16 +13306,8 @@
       <c r="K369">
         <v>111071.9</v>
       </c>
-      <c r="L369" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4059699597692876</v>
-      </c>
-      <c r="M369">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -16316,16 +13341,8 @@
       <c r="K370">
         <v>164077.93</v>
       </c>
-      <c r="L370" s="1">
-        <f t="shared" si="10"/>
-        <v>2.076930714619341</v>
-      </c>
-      <c r="M370">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -16359,16 +13376,8 @@
       <c r="K371">
         <v>534424.69999999995</v>
       </c>
-      <c r="L371" s="1">
-        <f t="shared" si="10"/>
-        <v>6.7648529822458565</v>
-      </c>
-      <c r="M371">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -16402,16 +13411,8 @@
       <c r="K372">
         <v>139390.01</v>
       </c>
-      <c r="L372" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7644261667617158</v>
-      </c>
-      <c r="M372">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -16445,16 +13446,8 @@
       <c r="K373">
         <v>153369.78599999999</v>
       </c>
-      <c r="L373" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9413849214089636</v>
-      </c>
-      <c r="M373">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -16488,16 +13481,8 @@
       <c r="K374">
         <v>241642.53999999969</v>
       </c>
-      <c r="L374" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0587588061638278</v>
-      </c>
-      <c r="M374">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -16531,16 +13516,8 @@
       <c r="K375">
         <v>161131.27000000002</v>
       </c>
-      <c r="L375" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0396313126855152</v>
-      </c>
-      <c r="M375">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -16574,16 +13551,8 @@
       <c r="K376">
         <v>34599.75</v>
       </c>
-      <c r="L376" s="1">
-        <f t="shared" si="10"/>
-        <v>0.43797044180866096</v>
-      </c>
-      <c r="M376">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -16617,16 +13586,8 @@
       <c r="K377">
         <v>33902.03</v>
       </c>
-      <c r="L377" s="1">
-        <f t="shared" si="10"/>
-        <v>0.42913856479629126</v>
-      </c>
-      <c r="M377">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -16660,16 +13621,8 @@
       <c r="K378">
         <v>68268.52</v>
       </c>
-      <c r="L378" s="1">
-        <f t="shared" si="10"/>
-        <v>0.86415635563908444</v>
-      </c>
-      <c r="M378">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -16703,16 +13656,8 @@
       <c r="K379">
         <v>69974.59</v>
       </c>
-      <c r="L379" s="1">
-        <f t="shared" si="10"/>
-        <v>0.88575212530957326</v>
-      </c>
-      <c r="M379">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -16746,16 +13691,8 @@
       <c r="K380">
         <v>95312.012499999997</v>
       </c>
-      <c r="L380" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2064782035794368</v>
-      </c>
-      <c r="M380">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -16789,16 +13726,8 @@
       <c r="K381">
         <v>191292.24</v>
       </c>
-      <c r="L381" s="1">
-        <f t="shared" si="10"/>
-        <v>2.421414804077151</v>
-      </c>
-      <c r="M381">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -16832,16 +13761,8 @@
       <c r="K382">
         <v>203040.52</v>
       </c>
-      <c r="L382" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5701268433864484</v>
-      </c>
-      <c r="M382">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -16875,16 +13796,8 @@
       <c r="K383">
         <v>66687.38</v>
       </c>
-      <c r="L383" s="1">
-        <f t="shared" si="10"/>
-        <v>0.84414197448426831</v>
-      </c>
-      <c r="M383">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -16918,16 +13831,8 @@
       <c r="K384">
         <v>74121.811249999999</v>
       </c>
-      <c r="L384" s="1">
-        <f t="shared" si="10"/>
-        <v>0.93824846771495973</v>
-      </c>
-      <c r="M384">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -16961,16 +13866,8 @@
       <c r="K385">
         <v>78660.350000000006</v>
       </c>
-      <c r="L385" s="1">
-        <f t="shared" si="10"/>
-        <v>0.99569818401358123</v>
-      </c>
-      <c r="M385">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -17004,16 +13901,8 @@
       <c r="K386">
         <v>58360.507142857103</v>
       </c>
-      <c r="L386" s="1">
-        <f t="shared" si="10"/>
-        <v>0.73873877983322533</v>
-      </c>
-      <c r="M386">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17047,16 +13936,8 @@
       <c r="K387">
         <v>75392.826666666675</v>
       </c>
-      <c r="L387" s="1">
-        <f t="shared" ref="L387:L450" si="12">K387/$L$1</f>
-        <v>0.95433723088761624</v>
-      </c>
-      <c r="M387">
-        <f t="shared" ref="M387:M450" ca="1" si="13">IF(RAND()&lt;G387/12,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -17090,16 +13971,8 @@
       <c r="K388">
         <v>144501.631666667</v>
       </c>
-      <c r="L388" s="1">
-        <f t="shared" si="12"/>
-        <v>1.8291300793538261</v>
-      </c>
-      <c r="M388">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -17133,16 +14006,8 @@
       <c r="K389">
         <v>29400</v>
       </c>
-      <c r="L389" s="1">
-        <f t="shared" si="12"/>
-        <v>0.37215098343700842</v>
-      </c>
-      <c r="M389">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -17176,16 +14041,8 @@
       <c r="K390">
         <v>100663.05</v>
       </c>
-      <c r="L390" s="1">
-        <f t="shared" si="12"/>
-        <v>1.2742126888866923</v>
-      </c>
-      <c r="M390">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -17219,16 +14076,8 @@
       <c r="K391">
         <v>133800.43333333332</v>
       </c>
-      <c r="L391" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6936722057584312</v>
-      </c>
-      <c r="M391">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -17262,16 +14111,8 @@
       <c r="K392">
         <v>68283.959999999992</v>
       </c>
-      <c r="L392" s="1">
-        <f t="shared" si="12"/>
-        <v>0.8643517981963722</v>
-      </c>
-      <c r="M392">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -17305,16 +14146,8 @@
       <c r="K393">
         <v>107436.26</v>
       </c>
-      <c r="L393" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3599493134623855</v>
-      </c>
-      <c r="M393">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -17348,16 +14181,8 @@
       <c r="K394">
         <v>91688.23</v>
       </c>
-      <c r="L394" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1606076518400892</v>
-      </c>
-      <c r="M394">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -17391,16 +14216,8 @@
       <c r="K395">
         <v>118597</v>
       </c>
-      <c r="L395" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5012241558734316</v>
-      </c>
-      <c r="M395">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -17434,16 +14251,8 @@
       <c r="K396">
         <v>104670.495</v>
       </c>
-      <c r="L396" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3249397160234175</v>
-      </c>
-      <c r="M396">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -17477,16 +14286,8 @@
       <c r="K397">
         <v>158850.27000000002</v>
       </c>
-      <c r="L397" s="1">
-        <f t="shared" si="12"/>
-        <v>2.010757965977358</v>
-      </c>
-      <c r="M397">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -17520,16 +14321,8 @@
       <c r="K398">
         <v>62890.929999999993</v>
       </c>
-      <c r="L398" s="1">
-        <f t="shared" si="12"/>
-        <v>0.79608576356353933</v>
-      </c>
-      <c r="M398">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -17563,16 +14356,8 @@
       <c r="K399">
         <v>90889.180000000008</v>
       </c>
-      <c r="L399" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1504931197545334</v>
-      </c>
-      <c r="M399">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -17606,16 +14391,8 @@
       <c r="K400">
         <v>108454.55500000034</v>
       </c>
-      <c r="L400" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3728390918868452</v>
-      </c>
-      <c r="M400">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -17649,16 +14426,8 @@
       <c r="K401">
         <v>82998.625</v>
       </c>
-      <c r="L401" s="1">
-        <f t="shared" si="12"/>
-        <v>1.05061292236971</v>
-      </c>
-      <c r="M401">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -17692,16 +14461,8 @@
       <c r="K402">
         <v>77563.08</v>
       </c>
-      <c r="L402" s="1">
-        <f t="shared" si="12"/>
-        <v>0.98180872450351564</v>
-      </c>
-      <c r="M402">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -17735,16 +14496,8 @@
       <c r="K403">
         <v>51112.050000000032</v>
       </c>
-      <c r="L403" s="1">
-        <f t="shared" si="12"/>
-        <v>0.6469863834347469</v>
-      </c>
-      <c r="M403">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -17778,16 +14531,8 @@
       <c r="K404">
         <v>124582.42499999999</v>
       </c>
-      <c r="L404" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5769888429495695</v>
-      </c>
-      <c r="M404">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -17821,16 +14566,8 @@
       <c r="K405">
         <v>82901.73</v>
       </c>
-      <c r="L405" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0493864063989573</v>
-      </c>
-      <c r="M405">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -17864,16 +14601,8 @@
       <c r="K406">
         <v>197156.12</v>
       </c>
-      <c r="L406" s="1">
-        <f t="shared" si="12"/>
-        <v>2.495640950633498</v>
-      </c>
-      <c r="M406">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -17907,16 +14636,8 @@
       <c r="K407">
         <v>78651.08</v>
       </c>
-      <c r="L407" s="1">
-        <f t="shared" si="12"/>
-        <v>0.9955808425300281</v>
-      </c>
-      <c r="M407">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -17950,16 +14671,8 @@
       <c r="K408">
         <v>92100.93</v>
       </c>
-      <c r="L408" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1658316896245942</v>
-      </c>
-      <c r="M408">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -17993,16 +14706,8 @@
       <c r="K409">
         <v>72641.024285714288</v>
       </c>
-      <c r="L409" s="1">
-        <f t="shared" si="12"/>
-        <v>0.91950437502721716</v>
-      </c>
-      <c r="M409">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18036,16 +14741,8 @@
       <c r="K410">
         <v>67846.13</v>
       </c>
-      <c r="L410" s="1">
-        <f t="shared" si="12"/>
-        <v>0.85880965992840552</v>
-      </c>
-      <c r="M410">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18079,16 +14776,8 @@
       <c r="K411">
         <v>82150.02</v>
       </c>
-      <c r="L411" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0398711133459155</v>
-      </c>
-      <c r="M411">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18122,16 +14811,8 @@
       <c r="K412">
         <v>14121.970000000001</v>
       </c>
-      <c r="L412" s="1">
-        <f t="shared" si="12"/>
-        <v>0.17875867427101805</v>
-      </c>
-      <c r="M412">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18165,16 +14846,8 @@
       <c r="K413">
         <v>78429.115000000005</v>
       </c>
-      <c r="L413" s="1">
-        <f t="shared" si="12"/>
-        <v>0.99277116589606229</v>
-      </c>
-      <c r="M413">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18208,16 +14881,8 @@
       <c r="K414">
         <v>175321.16999999998</v>
       </c>
-      <c r="L414" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2192498582594196</v>
-      </c>
-      <c r="M414">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18251,16 +14916,8 @@
       <c r="K415">
         <v>88761.626000000004</v>
       </c>
-      <c r="L415" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1235621226995898</v>
-      </c>
-      <c r="M415">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18294,16 +14951,8 @@
       <c r="K416">
         <v>179127.08499999999</v>
       </c>
-      <c r="L416" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2674258790120612</v>
-      </c>
-      <c r="M416">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18337,16 +14986,8 @@
       <c r="K417">
         <v>256236.84999999998</v>
       </c>
-      <c r="L417" s="1">
-        <f t="shared" si="12"/>
-        <v>3.2434964530714696</v>
-      </c>
-      <c r="M417">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18380,16 +15021,8 @@
       <c r="K418">
         <v>115680.51</v>
       </c>
-      <c r="L418" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4643066517345131</v>
-      </c>
-      <c r="M418">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18423,16 +15056,8 @@
       <c r="K419">
         <v>320736.11625000002</v>
       </c>
-      <c r="L419" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0599408532722503</v>
-      </c>
-      <c r="M419">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18466,16 +15091,8 @@
       <c r="K420">
         <v>330066.255</v>
       </c>
-      <c r="L420" s="1">
-        <f t="shared" si="12"/>
-        <v>4.178043584953075</v>
-      </c>
-      <c r="M420">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18509,16 +15126,8 @@
       <c r="K421">
         <v>124053.80500000001</v>
       </c>
-      <c r="L421" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5702974670017986</v>
-      </c>
-      <c r="M421">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18552,16 +15161,8 @@
       <c r="K422">
         <v>84677.944999999992</v>
       </c>
-      <c r="L422" s="1">
-        <f t="shared" si="12"/>
-        <v>1.071870085278058</v>
-      </c>
-      <c r="M422">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18595,16 +15196,8 @@
       <c r="K423">
         <v>138598.34</v>
       </c>
-      <c r="L423" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7544050521679204</v>
-      </c>
-      <c r="M423">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -18638,16 +15231,8 @@
       <c r="K424">
         <v>209478.96</v>
       </c>
-      <c r="L424" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6516258834476787</v>
-      </c>
-      <c r="M424">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -18681,16 +15266,8 @@
       <c r="K425">
         <v>64789.079999999994</v>
       </c>
-      <c r="L425" s="1">
-        <f t="shared" si="12"/>
-        <v>0.82011291965915012</v>
-      </c>
-      <c r="M425">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18724,16 +15301,8 @@
       <c r="K426">
         <v>188452.58</v>
       </c>
-      <c r="L426" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3854698291918877</v>
-      </c>
-      <c r="M426">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -18767,16 +15336,8 @@
       <c r="K427">
         <v>114810.3</v>
       </c>
-      <c r="L427" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4532913623706794</v>
-      </c>
-      <c r="M427">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18810,16 +15371,8 @@
       <c r="K428">
         <v>142507.69</v>
       </c>
-      <c r="L428" s="1">
-        <f t="shared" si="12"/>
-        <v>1.8038903734978344</v>
-      </c>
-      <c r="M428">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18853,16 +15406,8 @@
       <c r="K429">
         <v>138851.42499999999</v>
       </c>
-      <c r="L429" s="1">
-        <f t="shared" si="12"/>
-        <v>1.757608651883674</v>
-      </c>
-      <c r="M429">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18896,16 +15441,8 @@
       <c r="K430">
         <v>67589.801428571402</v>
       </c>
-      <c r="L430" s="1">
-        <f t="shared" si="12"/>
-        <v>0.85556500244744782</v>
-      </c>
-      <c r="M430">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -18939,16 +15476,8 @@
       <c r="K431">
         <v>84786.822500000009</v>
       </c>
-      <c r="L431" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0732482780909551</v>
-      </c>
-      <c r="M431">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -18982,16 +15511,8 @@
       <c r="K432">
         <v>68413.039999999994</v>
       </c>
-      <c r="L432" s="1">
-        <f t="shared" si="12"/>
-        <v>0.86598571822841475</v>
-      </c>
-      <c r="M432">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19025,16 +15546,8 @@
       <c r="K433">
         <v>113583.7475</v>
       </c>
-      <c r="L433" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4377654195437364</v>
-      </c>
-      <c r="M433">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19068,16 +15581,8 @@
       <c r="K434">
         <v>103437.42</v>
       </c>
-      <c r="L434" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3093312101083974</v>
-      </c>
-      <c r="M434">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19111,16 +15616,8 @@
       <c r="K435">
         <v>230734.4933333337</v>
       </c>
-      <c r="L435" s="1">
-        <f t="shared" si="12"/>
-        <v>2.9206826056748301</v>
-      </c>
-      <c r="M435">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19154,16 +15651,8 @@
       <c r="K436">
         <v>104201.52100000001</v>
       </c>
-      <c r="L436" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3190033508769419</v>
-      </c>
-      <c r="M436">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19197,16 +15686,8 @@
       <c r="K437">
         <v>59931.991666666632</v>
       </c>
-      <c r="L437" s="1">
-        <f t="shared" si="12"/>
-        <v>0.75863094007104015</v>
-      </c>
-      <c r="M437">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19240,16 +15721,8 @@
       <c r="K438">
         <v>162268.19666666666</v>
       </c>
-      <c r="L438" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0540227540833298</v>
-      </c>
-      <c r="M438">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19283,16 +15756,8 @@
       <c r="K439">
         <v>177131.73500000002</v>
       </c>
-      <c r="L439" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2421683461956996</v>
-      </c>
-      <c r="M439">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19326,16 +15791,8 @@
       <c r="K440">
         <v>195204.48199999999</v>
       </c>
-      <c r="L440" s="1">
-        <f t="shared" si="12"/>
-        <v>2.4709367329119662</v>
-      </c>
-      <c r="M440">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19369,16 +15826,8 @@
       <c r="K441">
         <v>243053.05</v>
       </c>
-      <c r="L441" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0766133192130742</v>
-      </c>
-      <c r="M441">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19412,16 +15861,8 @@
       <c r="K442">
         <v>85180.59</v>
       </c>
-      <c r="L442" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0782326645661431</v>
-      </c>
-      <c r="M442">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19455,16 +15896,8 @@
       <c r="K443">
         <v>80727.94</v>
       </c>
-      <c r="L443" s="1">
-        <f t="shared" si="12"/>
-        <v>1.021870144960674</v>
-      </c>
-      <c r="M443">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19498,16 +15931,8 @@
       <c r="K444">
         <v>61071.922499999993</v>
       </c>
-      <c r="L444" s="1">
-        <f t="shared" si="12"/>
-        <v>0.77306040880148841</v>
-      </c>
-      <c r="M444">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19541,16 +15966,8 @@
       <c r="K445">
         <v>73926.05</v>
       </c>
-      <c r="L445" s="1">
-        <f t="shared" si="12"/>
-        <v>0.93577048330317891</v>
-      </c>
-      <c r="M445">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19584,16 +16001,8 @@
       <c r="K446">
         <v>174932.7233333333</v>
       </c>
-      <c r="L446" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2143328239392552</v>
-      </c>
-      <c r="M446">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19627,16 +16036,8 @@
       <c r="K447">
         <v>330709.80500000005</v>
       </c>
-      <c r="L447" s="1">
-        <f t="shared" si="12"/>
-        <v>4.1861897674493642</v>
-      </c>
-      <c r="M447">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19670,16 +16071,8 @@
       <c r="K448">
         <v>190763.11</v>
       </c>
-      <c r="L448" s="1">
-        <f t="shared" si="12"/>
-        <v>2.4147169724490549</v>
-      </c>
-      <c r="M448">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19713,16 +16106,8 @@
       <c r="K449">
         <v>298744.69999999995</v>
       </c>
-      <c r="L449" s="1">
-        <f t="shared" si="12"/>
-        <v>3.7815691803263278</v>
-      </c>
-      <c r="M449">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19756,16 +16141,8 @@
       <c r="K450">
         <v>158802.29999999999</v>
       </c>
-      <c r="L450" s="1">
-        <f t="shared" si="12"/>
-        <v>2.010150752280913</v>
-      </c>
-      <c r="M450">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19799,16 +16176,8 @@
       <c r="K451">
         <v>236257.21333333332</v>
       </c>
-      <c r="L451" s="1">
-        <f t="shared" ref="L451:L463" si="14">K451/$L$1</f>
-        <v>2.990590281839697</v>
-      </c>
-      <c r="M451">
-        <f t="shared" ref="M451:M463" ca="1" si="15">IF(RAND()&lt;G451/12,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19842,16 +16211,8 @@
       <c r="K452">
         <v>149621.2525</v>
       </c>
-      <c r="L452" s="1">
-        <f t="shared" si="14"/>
-        <v>1.893935246971155</v>
-      </c>
-      <c r="M452">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19885,16 +16246,8 @@
       <c r="K453">
         <v>162342.54750000002</v>
       </c>
-      <c r="L453" s="1">
-        <f t="shared" si="14"/>
-        <v>2.054963901557628</v>
-      </c>
-      <c r="M453">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19928,16 +16281,8 @@
       <c r="K454">
         <v>181967.45833333334</v>
       </c>
-      <c r="L454" s="1">
-        <f t="shared" si="14"/>
-        <v>2.3033798834109818</v>
-      </c>
-      <c r="M454">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19971,16 +16316,8 @@
       <c r="K455">
         <v>301195.1925</v>
       </c>
-      <c r="L455" s="1">
-        <f t="shared" si="14"/>
-        <v>3.812587996441295</v>
-      </c>
-      <c r="M455">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -20014,16 +16351,8 @@
       <c r="K456">
         <v>301195.19</v>
       </c>
-      <c r="L456" s="1">
-        <f t="shared" si="14"/>
-        <v>3.812587964795803</v>
-      </c>
-      <c r="M456">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -20057,16 +16386,8 @@
       <c r="K457">
         <v>11441.2</v>
       </c>
-      <c r="L457" s="1">
-        <f t="shared" si="14"/>
-        <v>0.14482496026188779</v>
-      </c>
-      <c r="M457">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -20100,16 +16421,8 @@
       <c r="K458">
         <v>330164.32250000001</v>
       </c>
-      <c r="L458" s="1">
-        <f t="shared" si="14"/>
-        <v>4.1792849426594767</v>
-      </c>
-      <c r="M458">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -20143,16 +16456,8 @@
       <c r="K459">
         <v>475580.67</v>
       </c>
-      <c r="L459" s="1">
-        <f t="shared" si="14"/>
-        <v>6.019993674970455</v>
-      </c>
-      <c r="M459">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -20186,16 +16491,8 @@
       <c r="K460">
         <v>741707.67999999993</v>
       </c>
-      <c r="L460" s="1">
-        <f t="shared" si="14"/>
-        <v>9.3886817188701333</v>
-      </c>
-      <c r="M460">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -20229,16 +16526,8 @@
       <c r="K461">
         <v>6305.66</v>
       </c>
-      <c r="L461" s="1">
-        <f t="shared" si="14"/>
-        <v>7.9818284701340364E-2</v>
-      </c>
-      <c r="M461">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -20272,16 +16561,8 @@
       <c r="K462">
         <v>5800.96</v>
       </c>
-      <c r="L462" s="1">
-        <f t="shared" si="14"/>
-        <v>7.3429692819005049E-2</v>
-      </c>
-      <c r="M462">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -20314,14 +16595,6 @@
       </c>
       <c r="K463">
         <v>24899.46</v>
-      </c>
-      <c r="L463" s="1">
-        <f t="shared" si="14"/>
-        <v>0.31518226279083178</v>
-      </c>
-      <c r="M463">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
